--- a/data/pca/factorExposure/factorExposure_2012-07-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-05.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01726688928167699</v>
+        <v>0.02227726400288511</v>
       </c>
       <c r="C2">
-        <v>0.02814936652924706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02434796619921165</v>
+      </c>
+      <c r="D2">
+        <v>0.00541681799922226</v>
+      </c>
+      <c r="E2">
+        <v>-0.01771190203146039</v>
+      </c>
+      <c r="F2">
+        <v>-0.004777148249474187</v>
+      </c>
+      <c r="G2">
+        <v>-0.01630167992520962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06847164324498713</v>
+        <v>0.07566501811422882</v>
       </c>
       <c r="C4">
-        <v>0.0597781922234538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.040568916210542</v>
+      </c>
+      <c r="D4">
+        <v>0.06958264085583156</v>
+      </c>
+      <c r="E4">
+        <v>0.002818754191792987</v>
+      </c>
+      <c r="F4">
+        <v>-0.02876497668806492</v>
+      </c>
+      <c r="G4">
+        <v>0.02097729250976178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09606679494926734</v>
+        <v>0.1118644895574096</v>
       </c>
       <c r="C6">
-        <v>0.06775621839350067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04637366013828301</v>
+      </c>
+      <c r="D6">
+        <v>0.01159316629387492</v>
+      </c>
+      <c r="E6">
+        <v>0.0014301612295503</v>
+      </c>
+      <c r="F6">
+        <v>-0.04249705792700335</v>
+      </c>
+      <c r="G6">
+        <v>-0.01909054275131875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04429335205760105</v>
+        <v>0.05379191215212314</v>
       </c>
       <c r="C7">
-        <v>0.03501340912891534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02630555289243611</v>
+      </c>
+      <c r="D7">
+        <v>0.03367650322245417</v>
+      </c>
+      <c r="E7">
+        <v>-0.02128258037589708</v>
+      </c>
+      <c r="F7">
+        <v>-0.03204553996083492</v>
+      </c>
+      <c r="G7">
+        <v>0.03582596869973352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03257733507236906</v>
+        <v>0.03448143916425134</v>
       </c>
       <c r="C8">
-        <v>0.02772285247934354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0181061277483177</v>
+      </c>
+      <c r="D8">
+        <v>0.03899089183682862</v>
+      </c>
+      <c r="E8">
+        <v>-0.004553848659398345</v>
+      </c>
+      <c r="F8">
+        <v>-0.05019543835175141</v>
+      </c>
+      <c r="G8">
+        <v>-0.02266760652866244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06208268627637694</v>
+        <v>0.0704000296336959</v>
       </c>
       <c r="C9">
-        <v>0.04698860030238014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.03050231166972812</v>
+      </c>
+      <c r="D9">
+        <v>0.06982644996273586</v>
+      </c>
+      <c r="E9">
+        <v>-0.01674576109042101</v>
+      </c>
+      <c r="F9">
+        <v>-0.03717229007630882</v>
+      </c>
+      <c r="G9">
+        <v>0.008269051626785113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02917105902877134</v>
+        <v>0.04087226829105779</v>
       </c>
       <c r="C10">
-        <v>0.03886576700560403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03882325060695361</v>
+      </c>
+      <c r="D10">
+        <v>-0.1852305782023402</v>
+      </c>
+      <c r="E10">
+        <v>-0.04693431314346309</v>
+      </c>
+      <c r="F10">
+        <v>-0.03543154169594618</v>
+      </c>
+      <c r="G10">
+        <v>0.02513197653470813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06923557465256533</v>
+        <v>0.07552805365910301</v>
       </c>
       <c r="C11">
-        <v>0.05379582424576741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03215084595934457</v>
+      </c>
+      <c r="D11">
+        <v>0.06808077164838233</v>
+      </c>
+      <c r="E11">
+        <v>0.007882314134450358</v>
+      </c>
+      <c r="F11">
+        <v>-0.03600800173441627</v>
+      </c>
+      <c r="G11">
+        <v>0.03370388193809017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0523631710206427</v>
+        <v>0.06026888121411977</v>
       </c>
       <c r="C12">
-        <v>0.0523673047258881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03611868182125153</v>
+      </c>
+      <c r="D12">
+        <v>0.05109957344582362</v>
+      </c>
+      <c r="E12">
+        <v>-0.009326921647721829</v>
+      </c>
+      <c r="F12">
+        <v>-0.02610034944589734</v>
+      </c>
+      <c r="G12">
+        <v>0.03047909460849007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.05792117175758996</v>
+        <v>0.06493478481918979</v>
       </c>
       <c r="C13">
-        <v>0.05118350840949289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03148446351603391</v>
+      </c>
+      <c r="D13">
+        <v>0.05341713710885432</v>
+      </c>
+      <c r="E13">
+        <v>-0.003681960062378154</v>
+      </c>
+      <c r="F13">
+        <v>-0.02042588893165813</v>
+      </c>
+      <c r="G13">
+        <v>0.01783453303506715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03306368681805386</v>
+        <v>0.0379560100964683</v>
       </c>
       <c r="C14">
-        <v>0.02963035244226105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02245572843866586</v>
+      </c>
+      <c r="D14">
+        <v>0.009148204420804563</v>
+      </c>
+      <c r="E14">
+        <v>-0.01753749247021152</v>
+      </c>
+      <c r="F14">
+        <v>-0.01224372202376129</v>
+      </c>
+      <c r="G14">
+        <v>-0.004266145231812807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03949920159805033</v>
+        <v>0.04036852186923706</v>
       </c>
       <c r="C15">
-        <v>0.01469010215027075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005263489508153345</v>
+      </c>
+      <c r="D15">
+        <v>0.01877210115635586</v>
+      </c>
+      <c r="E15">
+        <v>-0.04242701025823441</v>
+      </c>
+      <c r="F15">
+        <v>0.001292894378965912</v>
+      </c>
+      <c r="G15">
+        <v>-0.01818272253404972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05782765811775237</v>
+        <v>0.06200293812317469</v>
       </c>
       <c r="C16">
-        <v>0.04517666832072127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02825734655821142</v>
+      </c>
+      <c r="D16">
+        <v>0.05988746602539053</v>
+      </c>
+      <c r="E16">
+        <v>0.0001506811952461024</v>
+      </c>
+      <c r="F16">
+        <v>-0.03097352719497094</v>
+      </c>
+      <c r="G16">
+        <v>0.0207118087722807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06201803864175428</v>
+        <v>0.06154382102182467</v>
       </c>
       <c r="C20">
-        <v>0.03782300131804455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01890559484459204</v>
+      </c>
+      <c r="D20">
+        <v>0.04950857021521717</v>
+      </c>
+      <c r="E20">
+        <v>-0.01774986728739093</v>
+      </c>
+      <c r="F20">
+        <v>-0.02684328151102267</v>
+      </c>
+      <c r="G20">
+        <v>0.02416365213709185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02686634778244815</v>
+        <v>0.02284718348651716</v>
       </c>
       <c r="C21">
-        <v>1.549412837650597e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01054188657605732</v>
+      </c>
+      <c r="D21">
+        <v>0.0302891943809797</v>
+      </c>
+      <c r="E21">
+        <v>-0.09364396166796604</v>
+      </c>
+      <c r="F21">
+        <v>0.007406682552883827</v>
+      </c>
+      <c r="G21">
+        <v>-0.02040530992645419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06781756781373063</v>
+        <v>0.06705126395354584</v>
       </c>
       <c r="C22">
-        <v>0.07672822794290056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04780509898230518</v>
+      </c>
+      <c r="D22">
+        <v>0.1078464718711509</v>
+      </c>
+      <c r="E22">
+        <v>-0.6086546248563213</v>
+      </c>
+      <c r="F22">
+        <v>0.1511983547137066</v>
+      </c>
+      <c r="G22">
+        <v>-0.02300276673292966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.06857722396346293</v>
+        <v>0.06776726228459426</v>
       </c>
       <c r="C23">
-        <v>0.07626815303922638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04725585909630185</v>
+      </c>
+      <c r="D23">
+        <v>0.1089796463471778</v>
+      </c>
+      <c r="E23">
+        <v>-0.6078943672405785</v>
+      </c>
+      <c r="F23">
+        <v>0.1509897925891704</v>
+      </c>
+      <c r="G23">
+        <v>-0.02463377468213299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06431246997969135</v>
+        <v>0.07263860176987395</v>
       </c>
       <c r="C24">
-        <v>0.05281639058245376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03361208778362774</v>
+      </c>
+      <c r="D24">
+        <v>0.06646687675382063</v>
+      </c>
+      <c r="E24">
+        <v>-0.006830647784596428</v>
+      </c>
+      <c r="F24">
+        <v>-0.04442063895861702</v>
+      </c>
+      <c r="G24">
+        <v>0.01369100841045955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.06454871661709606</v>
+        <v>0.07055605084647178</v>
       </c>
       <c r="C25">
-        <v>0.05832459543399581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03878856671691297</v>
+      </c>
+      <c r="D25">
+        <v>0.06442191605035044</v>
+      </c>
+      <c r="E25">
+        <v>-0.006838796812528249</v>
+      </c>
+      <c r="F25">
+        <v>-0.03832437546145762</v>
+      </c>
+      <c r="G25">
+        <v>0.009998428102038629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03900102459115384</v>
+        <v>0.04029871426131414</v>
       </c>
       <c r="C26">
-        <v>0.01419017078014592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005703062572191605</v>
+      </c>
+      <c r="D26">
+        <v>0.01957975028223924</v>
+      </c>
+      <c r="E26">
+        <v>-0.03931864747676617</v>
+      </c>
+      <c r="F26">
+        <v>-0.01992036113611758</v>
+      </c>
+      <c r="G26">
+        <v>0.01955843309415612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05239662968964224</v>
+        <v>0.07452049181126781</v>
       </c>
       <c r="C28">
-        <v>0.07576199150935672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07585931496303301</v>
+      </c>
+      <c r="D28">
+        <v>-0.3244453771214504</v>
+      </c>
+      <c r="E28">
+        <v>-0.04594139395163228</v>
+      </c>
+      <c r="F28">
+        <v>-0.04978171701508083</v>
+      </c>
+      <c r="G28">
+        <v>-0.02761501835613428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03596141590695607</v>
+        <v>0.04202399937157835</v>
       </c>
       <c r="C29">
-        <v>0.03333856189022922</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02572566038917971</v>
+      </c>
+      <c r="D29">
+        <v>0.00916095128049617</v>
+      </c>
+      <c r="E29">
+        <v>-0.04113643334508146</v>
+      </c>
+      <c r="F29">
+        <v>-0.00752562832546953</v>
+      </c>
+      <c r="G29">
+        <v>0.009998244187498838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1126923048472091</v>
+        <v>0.1267273772362124</v>
       </c>
       <c r="C30">
-        <v>0.1000065444988373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06751577435392209</v>
+      </c>
+      <c r="D30">
+        <v>0.1048639810400787</v>
+      </c>
+      <c r="E30">
+        <v>-0.03838468506378304</v>
+      </c>
+      <c r="F30">
+        <v>-0.01512679029846168</v>
+      </c>
+      <c r="G30">
+        <v>-0.007337823872971519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03770053888800407</v>
+        <v>0.0431340679409253</v>
       </c>
       <c r="C31">
-        <v>0.0256848179234369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0163171173054101</v>
+      </c>
+      <c r="D31">
+        <v>0.02917620375394563</v>
+      </c>
+      <c r="E31">
+        <v>-0.02068975187200389</v>
+      </c>
+      <c r="F31">
+        <v>-0.01479843647630061</v>
+      </c>
+      <c r="G31">
+        <v>0.02123961033730837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03148226820404727</v>
+        <v>0.03340096478274787</v>
       </c>
       <c r="C32">
-        <v>0.02882688662549491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01834463825324107</v>
+      </c>
+      <c r="D32">
+        <v>0.01581757756831781</v>
+      </c>
+      <c r="E32">
+        <v>-0.06049307523103976</v>
+      </c>
+      <c r="F32">
+        <v>0.01402866824482215</v>
+      </c>
+      <c r="G32">
+        <v>-0.002271658268507095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07634206376400338</v>
+        <v>0.08822884370671791</v>
       </c>
       <c r="C33">
-        <v>0.0525930065504475</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03437805662828417</v>
+      </c>
+      <c r="D33">
+        <v>0.06334315811012954</v>
+      </c>
+      <c r="E33">
+        <v>-0.01316819693823845</v>
+      </c>
+      <c r="F33">
+        <v>-0.006171586645096096</v>
+      </c>
+      <c r="G33">
+        <v>0.03122251764621693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05117176701949754</v>
+        <v>0.0564312352746398</v>
       </c>
       <c r="C34">
-        <v>0.03356821088336012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01932346200913043</v>
+      </c>
+      <c r="D34">
+        <v>0.05754495711270563</v>
+      </c>
+      <c r="E34">
+        <v>-0.00309589260238901</v>
+      </c>
+      <c r="F34">
+        <v>-0.02753316019021014</v>
+      </c>
+      <c r="G34">
+        <v>0.01200407109362807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03668289810222588</v>
+        <v>0.03949108569103658</v>
       </c>
       <c r="C35">
-        <v>0.01420755179054412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.006279905255046981</v>
+      </c>
+      <c r="D35">
+        <v>0.00955613914037398</v>
+      </c>
+      <c r="E35">
+        <v>-0.02932644220955539</v>
+      </c>
+      <c r="F35">
+        <v>0.004351346287819102</v>
+      </c>
+      <c r="G35">
+        <v>0.01183036377329289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01915133615818885</v>
+        <v>0.02309575520655001</v>
       </c>
       <c r="C36">
-        <v>0.01596284560219881</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01071562147133581</v>
+      </c>
+      <c r="D36">
+        <v>0.0186179656814655</v>
+      </c>
+      <c r="E36">
+        <v>-0.03375196866466421</v>
+      </c>
+      <c r="F36">
+        <v>-0.02000756965662939</v>
+      </c>
+      <c r="G36">
+        <v>0.01855863788528789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03664129945975837</v>
+        <v>0.0399645567628225</v>
       </c>
       <c r="C38">
-        <v>0.01281601720958059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.004112539988247282</v>
+      </c>
+      <c r="D38">
+        <v>0.0118522939453275</v>
+      </c>
+      <c r="E38">
+        <v>-0.05930875842383351</v>
+      </c>
+      <c r="F38">
+        <v>0.02161953153624968</v>
+      </c>
+      <c r="G38">
+        <v>-0.02367830268515346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08663511923551627</v>
+        <v>0.09955366289455843</v>
       </c>
       <c r="C39">
-        <v>0.08110022626072365</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05503131518847773</v>
+      </c>
+      <c r="D39">
+        <v>0.08588377731967277</v>
+      </c>
+      <c r="E39">
+        <v>0.02302450871320154</v>
+      </c>
+      <c r="F39">
+        <v>-0.02458413444602008</v>
+      </c>
+      <c r="G39">
+        <v>-0.008081609143735324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06646527318124862</v>
+        <v>0.07322281309383365</v>
       </c>
       <c r="C40">
-        <v>0.05835150624520478</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03922077823220267</v>
+      </c>
+      <c r="D40">
+        <v>0.01133991931014683</v>
+      </c>
+      <c r="E40">
+        <v>-0.02569042002756879</v>
+      </c>
+      <c r="F40">
+        <v>0.04475797817993372</v>
+      </c>
+      <c r="G40">
+        <v>-0.0446796322064024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03946480159921491</v>
+        <v>0.04252375579325617</v>
       </c>
       <c r="C41">
-        <v>0.01772212373066241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008744685813896485</v>
+      </c>
+      <c r="D41">
+        <v>0.04190475727044071</v>
+      </c>
+      <c r="E41">
+        <v>-0.009856043597102473</v>
+      </c>
+      <c r="F41">
+        <v>0.01042723516818879</v>
+      </c>
+      <c r="G41">
+        <v>-0.001479932883189323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04081943627001146</v>
+        <v>0.04911158658545914</v>
       </c>
       <c r="C43">
-        <v>0.03747012963062403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02430450141511211</v>
+      </c>
+      <c r="D43">
+        <v>0.02812649534504592</v>
+      </c>
+      <c r="E43">
+        <v>-0.01894057816242373</v>
+      </c>
+      <c r="F43">
+        <v>-0.01091416424647899</v>
+      </c>
+      <c r="G43">
+        <v>0.01487104947754564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.08679939074855245</v>
+        <v>0.08964387901088901</v>
       </c>
       <c r="C44">
-        <v>0.09319367836615615</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06231942552772775</v>
+      </c>
+      <c r="D44">
+        <v>0.06192775082303027</v>
+      </c>
+      <c r="E44">
+        <v>-0.09448438669609392</v>
+      </c>
+      <c r="F44">
+        <v>-0.06235839159453058</v>
+      </c>
+      <c r="G44">
+        <v>-0.005171885231305603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0272069836873058</v>
+        <v>0.02811982504604149</v>
       </c>
       <c r="C46">
-        <v>0.01993122300046591</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.0124121066232322</v>
+      </c>
+      <c r="D46">
+        <v>0.03286172100329839</v>
+      </c>
+      <c r="E46">
+        <v>-0.01948399990826084</v>
+      </c>
+      <c r="F46">
+        <v>-0.01763238558267771</v>
+      </c>
+      <c r="G46">
+        <v>-0.00573700317432387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02935267184806632</v>
+        <v>0.03246828547568777</v>
       </c>
       <c r="C47">
-        <v>0.02223001089186095</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01365746191412843</v>
+      </c>
+      <c r="D47">
+        <v>0.01759676867120312</v>
+      </c>
+      <c r="E47">
+        <v>-0.05134436589600354</v>
+      </c>
+      <c r="F47">
+        <v>-0.01281082309691954</v>
+      </c>
+      <c r="G47">
+        <v>0.0265322695877129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02785874604691744</v>
+        <v>0.03205442669593798</v>
       </c>
       <c r="C48">
-        <v>0.01992870670787214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0122475540341656</v>
+      </c>
+      <c r="D48">
+        <v>0.02870678454811463</v>
+      </c>
+      <c r="E48">
+        <v>-0.04256256086155205</v>
+      </c>
+      <c r="F48">
+        <v>-0.01868805711769298</v>
+      </c>
+      <c r="G48">
+        <v>0.009875301314717675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1533196486035927</v>
+        <v>0.175622206078227</v>
       </c>
       <c r="C49">
-        <v>0.09583184871913525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05927127184152616</v>
+      </c>
+      <c r="D49">
+        <v>0.01059273171213997</v>
+      </c>
+      <c r="E49">
+        <v>0.1228457773835743</v>
+      </c>
+      <c r="F49">
+        <v>-0.01821886121294178</v>
+      </c>
+      <c r="G49">
+        <v>0.06726827108517408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03224071931817219</v>
+        <v>0.04008444859634086</v>
       </c>
       <c r="C50">
-        <v>0.02691744263961224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0222336886748306</v>
+      </c>
+      <c r="D50">
+        <v>0.03864002219874756</v>
+      </c>
+      <c r="E50">
+        <v>-0.04556735945308633</v>
+      </c>
+      <c r="F50">
+        <v>-0.02682706699665935</v>
+      </c>
+      <c r="G50">
+        <v>0.02201510202056209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02443792941886379</v>
+        <v>0.02603579164206045</v>
       </c>
       <c r="C51">
-        <v>0.01886228958097627</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01169466942042934</v>
+      </c>
+      <c r="D51">
+        <v>0.02582000703977188</v>
+      </c>
+      <c r="E51">
+        <v>-0.01486169534468148</v>
+      </c>
+      <c r="F51">
+        <v>-0.006594317889227527</v>
+      </c>
+      <c r="G51">
+        <v>-0.007797014660751849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1409317103293463</v>
+        <v>0.1595903998875407</v>
       </c>
       <c r="C53">
-        <v>0.1041493913290016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07114265107527271</v>
+      </c>
+      <c r="D53">
+        <v>0.02279968039015746</v>
+      </c>
+      <c r="E53">
+        <v>0.03384019838312334</v>
+      </c>
+      <c r="F53">
+        <v>-0.02619935025242991</v>
+      </c>
+      <c r="G53">
+        <v>0.02258294581082035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.05258412842517506</v>
+        <v>0.05608113579866646</v>
       </c>
       <c r="C54">
-        <v>0.02699403590776654</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01331447976404246</v>
+      </c>
+      <c r="D54">
+        <v>0.03625168187640591</v>
+      </c>
+      <c r="E54">
+        <v>-0.04180945873611918</v>
+      </c>
+      <c r="F54">
+        <v>-0.01182963660464922</v>
+      </c>
+      <c r="G54">
+        <v>0.01117165084577988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0934691608232542</v>
+        <v>0.1008907418944729</v>
       </c>
       <c r="C55">
-        <v>0.06573707485741137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0442595507033983</v>
+      </c>
+      <c r="D55">
+        <v>0.03228737739112122</v>
+      </c>
+      <c r="E55">
+        <v>-0.009818512967581192</v>
+      </c>
+      <c r="F55">
+        <v>-0.02751192676291677</v>
+      </c>
+      <c r="G55">
+        <v>0.01034468112064359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1359478749049661</v>
+        <v>0.1579624150134157</v>
       </c>
       <c r="C56">
-        <v>0.1120665052807857</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07829015929062612</v>
+      </c>
+      <c r="D56">
+        <v>0.0164081593713264</v>
+      </c>
+      <c r="E56">
+        <v>0.03591774061844358</v>
+      </c>
+      <c r="F56">
+        <v>-0.05953696794974383</v>
+      </c>
+      <c r="G56">
+        <v>0.03541458647130365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.116192365641486</v>
+        <v>0.1081037939487772</v>
       </c>
       <c r="C58">
-        <v>0.03497870016025444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001469981960416502</v>
+      </c>
+      <c r="D58">
+        <v>0.05291572741098882</v>
+      </c>
+      <c r="E58">
+        <v>-0.1730486263640802</v>
+      </c>
+      <c r="F58">
+        <v>-0.05125088096768011</v>
+      </c>
+      <c r="G58">
+        <v>0.0435215442068209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.105575068769529</v>
+        <v>0.1469981681095969</v>
       </c>
       <c r="C59">
-        <v>0.08952085667195844</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08582378825054186</v>
+      </c>
+      <c r="D59">
+        <v>-0.3510940804066301</v>
+      </c>
+      <c r="E59">
+        <v>-0.04481390465991283</v>
+      </c>
+      <c r="F59">
+        <v>0.02457117385535066</v>
+      </c>
+      <c r="G59">
+        <v>0.0165197098477661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1817279803929716</v>
+        <v>0.2122430194788908</v>
       </c>
       <c r="C60">
-        <v>0.1198052397067454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08105251468107304</v>
+      </c>
+      <c r="D60">
+        <v>0.01497948691604468</v>
+      </c>
+      <c r="E60">
+        <v>0.07275287695210925</v>
+      </c>
+      <c r="F60">
+        <v>-0.03726571435625898</v>
+      </c>
+      <c r="G60">
+        <v>-0.03362594694418179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07581281095485455</v>
+        <v>0.08377155207687639</v>
       </c>
       <c r="C61">
-        <v>0.05908085192807042</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03895017237946962</v>
+      </c>
+      <c r="D61">
+        <v>0.06158098242071322</v>
+      </c>
+      <c r="E61">
+        <v>0.01630665477912619</v>
+      </c>
+      <c r="F61">
+        <v>-0.009322005617676722</v>
+      </c>
+      <c r="G61">
+        <v>0.03146432341522275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1153501408149855</v>
+        <v>0.1373404332607428</v>
       </c>
       <c r="C62">
-        <v>0.08429371329986307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.06033029838520519</v>
+      </c>
+      <c r="D62">
+        <v>0.02657120566887588</v>
+      </c>
+      <c r="E62">
+        <v>0.05056871838094276</v>
+      </c>
+      <c r="F62">
+        <v>-0.02281638576604881</v>
+      </c>
+      <c r="G62">
+        <v>-0.01134330499274129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04886062215912702</v>
+        <v>0.05154457542986287</v>
       </c>
       <c r="C63">
-        <v>0.02986688077947654</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0184305714920635</v>
+      </c>
+      <c r="D63">
+        <v>0.02998346347105532</v>
+      </c>
+      <c r="E63">
+        <v>-0.04871620798352468</v>
+      </c>
+      <c r="F63">
+        <v>-0.01621904391387514</v>
+      </c>
+      <c r="G63">
+        <v>-0.02417234482898937</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1058349676469945</v>
+        <v>0.1108609809305799</v>
       </c>
       <c r="C64">
-        <v>0.0490312342990376</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02575788923104698</v>
+      </c>
+      <c r="D64">
+        <v>0.04719602475511422</v>
+      </c>
+      <c r="E64">
+        <v>-0.03052426241196448</v>
+      </c>
+      <c r="F64">
+        <v>-0.0531571504241408</v>
+      </c>
+      <c r="G64">
+        <v>-0.01694066589359992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1072526432286838</v>
+        <v>0.1209395220024703</v>
       </c>
       <c r="C65">
-        <v>0.06785197959065532</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04550848868398014</v>
+      </c>
+      <c r="D65">
+        <v>0.01468740298275411</v>
+      </c>
+      <c r="E65">
+        <v>0.003384469028103881</v>
+      </c>
+      <c r="F65">
+        <v>-0.05721744886917206</v>
+      </c>
+      <c r="G65">
+        <v>-0.04058922535922244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1339922928979608</v>
+        <v>0.1512929967498166</v>
       </c>
       <c r="C66">
-        <v>0.09184966615340397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05806935507059359</v>
+      </c>
+      <c r="D66">
+        <v>0.1212820051017243</v>
+      </c>
+      <c r="E66">
+        <v>0.05948013138056787</v>
+      </c>
+      <c r="F66">
+        <v>-0.04565683661619766</v>
+      </c>
+      <c r="G66">
+        <v>0.008620629452803098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06827407931919775</v>
+        <v>0.07361035793529035</v>
       </c>
       <c r="C67">
-        <v>0.02550918885367351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.00939355729287835</v>
+      </c>
+      <c r="D67">
+        <v>0.02532437320701629</v>
+      </c>
+      <c r="E67">
+        <v>-0.02754819349277144</v>
+      </c>
+      <c r="F67">
+        <v>0.004015365476024823</v>
+      </c>
+      <c r="G67">
+        <v>-0.000306415367381055</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0530471364132904</v>
+        <v>0.06870378617910565</v>
       </c>
       <c r="C68">
-        <v>0.04910917029918602</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04792767944450257</v>
+      </c>
+      <c r="D68">
+        <v>-0.2655641426954305</v>
+      </c>
+      <c r="E68">
+        <v>-0.04855666576267461</v>
+      </c>
+      <c r="F68">
+        <v>-0.01128148028840986</v>
+      </c>
+      <c r="G68">
+        <v>0.002076602752029516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04751228996685559</v>
+        <v>0.05083648316160844</v>
       </c>
       <c r="C69">
-        <v>0.028930338090456</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01330895020345905</v>
+      </c>
+      <c r="D69">
+        <v>0.0356006691128713</v>
+      </c>
+      <c r="E69">
+        <v>-0.01756062305621026</v>
+      </c>
+      <c r="F69">
+        <v>-0.00262864041147363</v>
+      </c>
+      <c r="G69">
+        <v>0.01070428515238126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.003513314381161116</v>
+        <v>0.01053012777663132</v>
       </c>
       <c r="C70">
-        <v>-0.001830266956383077</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.001199436283937031</v>
+      </c>
+      <c r="D70">
+        <v>-0.002247616909554125</v>
+      </c>
+      <c r="E70">
+        <v>0.005184481752012085</v>
+      </c>
+      <c r="F70">
+        <v>0.004969667625009167</v>
+      </c>
+      <c r="G70">
+        <v>0.003132595353262577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05589848162219399</v>
+        <v>0.07253318052501488</v>
       </c>
       <c r="C71">
-        <v>0.05048814040674261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04830278478867676</v>
+      </c>
+      <c r="D71">
+        <v>-0.2996170918749292</v>
+      </c>
+      <c r="E71">
+        <v>-0.05144138872453801</v>
+      </c>
+      <c r="F71">
+        <v>-0.03190104449370837</v>
+      </c>
+      <c r="G71">
+        <v>0.003886877186506984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1287959940363621</v>
+        <v>0.1503351682037692</v>
       </c>
       <c r="C72">
-        <v>0.07986270931516803</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05331550343637411</v>
+      </c>
+      <c r="D72">
+        <v>0.01315269991981417</v>
+      </c>
+      <c r="E72">
+        <v>0.1011621832245687</v>
+      </c>
+      <c r="F72">
+        <v>0.1537790917920875</v>
+      </c>
+      <c r="G72">
+        <v>-0.112835648610507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2411275153734057</v>
+        <v>0.2672989718153891</v>
       </c>
       <c r="C73">
-        <v>0.1436015191879262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08914748099763344</v>
+      </c>
+      <c r="D73">
+        <v>0.06221015200820733</v>
+      </c>
+      <c r="E73">
+        <v>0.1871168615032338</v>
+      </c>
+      <c r="F73">
+        <v>-0.07676035314646755</v>
+      </c>
+      <c r="G73">
+        <v>0.1548305500335523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07591256415326918</v>
+        <v>0.08855978584121291</v>
       </c>
       <c r="C74">
-        <v>0.08308728389592022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0631990632554127</v>
+      </c>
+      <c r="D74">
+        <v>0.03457388250395256</v>
+      </c>
+      <c r="E74">
+        <v>0.002001981807360378</v>
+      </c>
+      <c r="F74">
+        <v>0.003749534716314739</v>
+      </c>
+      <c r="G74">
+        <v>0.03512429356291429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09480962710198064</v>
+        <v>0.1068378986436338</v>
       </c>
       <c r="C75">
-        <v>0.07383788039851519</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04502549236462173</v>
+      </c>
+      <c r="D75">
+        <v>0.02022697055568789</v>
+      </c>
+      <c r="E75">
+        <v>-0.009595631013316744</v>
+      </c>
+      <c r="F75">
+        <v>-0.06603113383270652</v>
+      </c>
+      <c r="G75">
+        <v>0.01406831236261422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1174008287563032</v>
+        <v>0.1326319625199706</v>
       </c>
       <c r="C76">
-        <v>0.1018920396415754</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.07013660341332767</v>
+      </c>
+      <c r="D76">
+        <v>0.05590155885380058</v>
+      </c>
+      <c r="E76">
+        <v>-0.01108363890933525</v>
+      </c>
+      <c r="F76">
+        <v>-0.06907775636489286</v>
+      </c>
+      <c r="G76">
+        <v>0.01864041498234714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.09504862873468492</v>
+        <v>0.1022584363558647</v>
       </c>
       <c r="C77">
-        <v>0.06910255218478881</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.03638401397915034</v>
+      </c>
+      <c r="D77">
+        <v>0.04018531806229256</v>
+      </c>
+      <c r="E77">
+        <v>0.04942468424455261</v>
+      </c>
+      <c r="F77">
+        <v>-0.2620193964825402</v>
+      </c>
+      <c r="G77">
+        <v>-0.8957183360271614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08341472838246021</v>
+        <v>0.1011750337749483</v>
       </c>
       <c r="C78">
-        <v>0.04812878051460893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03327378106065709</v>
+      </c>
+      <c r="D78">
+        <v>0.07506724131606769</v>
+      </c>
+      <c r="E78">
+        <v>-0.05092519419982691</v>
+      </c>
+      <c r="F78">
+        <v>0.004442888641448319</v>
+      </c>
+      <c r="G78">
+        <v>-0.02442285548643377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1343583995616396</v>
+        <v>0.1503317063134654</v>
       </c>
       <c r="C79">
-        <v>0.1041056905098633</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06642467042340648</v>
+      </c>
+      <c r="D79">
+        <v>0.03106475693313561</v>
+      </c>
+      <c r="E79">
+        <v>0.01805454806226154</v>
+      </c>
+      <c r="F79">
+        <v>-0.03697083741158105</v>
+      </c>
+      <c r="G79">
+        <v>0.01984193430992702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04458837904615984</v>
+        <v>0.04144813789273585</v>
       </c>
       <c r="C80">
-        <v>0.01954523038006224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006781648571438555</v>
+      </c>
+      <c r="D80">
+        <v>0.02601858390792058</v>
+      </c>
+      <c r="E80">
+        <v>-0.003297935795190634</v>
+      </c>
+      <c r="F80">
+        <v>0.02495251740896243</v>
+      </c>
+      <c r="G80">
+        <v>0.04941960633605192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1074963886513341</v>
+        <v>0.1204450539982214</v>
       </c>
       <c r="C81">
-        <v>0.08273812889347351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05316231889917468</v>
+      </c>
+      <c r="D81">
+        <v>0.03700236813995789</v>
+      </c>
+      <c r="E81">
+        <v>0.005919369194617206</v>
+      </c>
+      <c r="F81">
+        <v>-0.03836684936054827</v>
+      </c>
+      <c r="G81">
+        <v>0.05631954273268507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.113257422978747</v>
+        <v>0.1249711075405123</v>
       </c>
       <c r="C82">
-        <v>0.09484128196543266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06155442949647878</v>
+      </c>
+      <c r="D82">
+        <v>0.03770889764754249</v>
+      </c>
+      <c r="E82">
+        <v>0.02244274180990876</v>
+      </c>
+      <c r="F82">
+        <v>-0.05369931881466501</v>
+      </c>
+      <c r="G82">
+        <v>0.06200640568804679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07163204675839246</v>
+        <v>0.0708474891503779</v>
       </c>
       <c r="C83">
-        <v>0.0173256674204505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004048227977343653</v>
+      </c>
+      <c r="D83">
+        <v>0.04286915105047116</v>
+      </c>
+      <c r="E83">
+        <v>-0.009002081337154969</v>
+      </c>
+      <c r="F83">
+        <v>-0.004806187785689277</v>
+      </c>
+      <c r="G83">
+        <v>0.060925624170723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02405268971516037</v>
+        <v>0.03313405846398044</v>
       </c>
       <c r="C84">
-        <v>0.01970464902645648</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01932209420519023</v>
+      </c>
+      <c r="D84">
+        <v>0.01399647101458419</v>
+      </c>
+      <c r="E84">
+        <v>-0.009191909923569561</v>
+      </c>
+      <c r="F84">
+        <v>0.03120362815969827</v>
+      </c>
+      <c r="G84">
+        <v>0.04041933434232356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.116146131226324</v>
+        <v>0.1181155604355808</v>
       </c>
       <c r="C85">
-        <v>0.08239540964802163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04666955038656814</v>
+      </c>
+      <c r="D85">
+        <v>0.03690643044049215</v>
+      </c>
+      <c r="E85">
+        <v>-0.01353283348820486</v>
+      </c>
+      <c r="F85">
+        <v>-0.08337670705178939</v>
+      </c>
+      <c r="G85">
+        <v>0.001319023609213512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04394126656262317</v>
+        <v>0.04713831754250553</v>
       </c>
       <c r="C86">
-        <v>0.02618180125368412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.0123369329566351</v>
+      </c>
+      <c r="D86">
+        <v>0.0146450985032336</v>
+      </c>
+      <c r="E86">
+        <v>-0.04336878918397578</v>
+      </c>
+      <c r="F86">
+        <v>-0.01586428271451577</v>
+      </c>
+      <c r="G86">
+        <v>0.0005521827478648858</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1126445344163783</v>
+        <v>0.1189029094812393</v>
       </c>
       <c r="C87">
-        <v>0.08249939379311189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04852753851374452</v>
+      </c>
+      <c r="D87">
+        <v>0.07297975251183428</v>
+      </c>
+      <c r="E87">
+        <v>-0.0109368544750778</v>
+      </c>
+      <c r="F87">
+        <v>-0.02918519591085208</v>
+      </c>
+      <c r="G87">
+        <v>-0.09806787741764673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05296879418550859</v>
+        <v>0.05712499670005772</v>
       </c>
       <c r="C88">
-        <v>0.0436595267578083</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02685524438678041</v>
+      </c>
+      <c r="D88">
+        <v>0.02630908977087302</v>
+      </c>
+      <c r="E88">
+        <v>-0.02189830550004917</v>
+      </c>
+      <c r="F88">
+        <v>-0.007727814010692444</v>
+      </c>
+      <c r="G88">
+        <v>-0.006556898361333478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07264472054658955</v>
+        <v>0.1042611860070823</v>
       </c>
       <c r="C89">
-        <v>0.08143095040171795</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07872108654264112</v>
+      </c>
+      <c r="D89">
+        <v>-0.3257994726444716</v>
+      </c>
+      <c r="E89">
+        <v>-0.08979211850724932</v>
+      </c>
+      <c r="F89">
+        <v>-0.05095979562929791</v>
+      </c>
+      <c r="G89">
+        <v>0.008174273659543867</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06812532302744972</v>
+        <v>0.09039549914523697</v>
       </c>
       <c r="C90">
-        <v>0.07299093623468793</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06890705348126661</v>
+      </c>
+      <c r="D90">
+        <v>-0.3115077779203783</v>
+      </c>
+      <c r="E90">
+        <v>-0.07194287788269874</v>
+      </c>
+      <c r="F90">
+        <v>0.01751212161730968</v>
+      </c>
+      <c r="G90">
+        <v>0.01685392430034132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07858962370740261</v>
+        <v>0.08822472401788103</v>
       </c>
       <c r="C91">
-        <v>0.0650380715883344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04286749766965805</v>
+      </c>
+      <c r="D91">
+        <v>0.02883959546769188</v>
+      </c>
+      <c r="E91">
+        <v>-0.005760866322270292</v>
+      </c>
+      <c r="F91">
+        <v>-0.01434624351374689</v>
+      </c>
+      <c r="G91">
+        <v>0.03380219980427993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.08227087426390349</v>
+        <v>0.1038949715304598</v>
       </c>
       <c r="C92">
-        <v>0.06701537473537035</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06222975215963859</v>
+      </c>
+      <c r="D92">
+        <v>-0.3290819380324106</v>
+      </c>
+      <c r="E92">
+        <v>-0.03114551566534928</v>
+      </c>
+      <c r="F92">
+        <v>-0.02517905036811739</v>
+      </c>
+      <c r="G92">
+        <v>-0.01793905315435244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06048601224638148</v>
+        <v>0.08535618274995815</v>
       </c>
       <c r="C93">
-        <v>0.0687979413448313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06747558040282514</v>
+      </c>
+      <c r="D93">
+        <v>-0.2994010967568884</v>
+      </c>
+      <c r="E93">
+        <v>-0.04395905136882554</v>
+      </c>
+      <c r="F93">
+        <v>-0.03375242262862186</v>
+      </c>
+      <c r="G93">
+        <v>-0.01348671543763229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.124061380151941</v>
+        <v>0.1273822431716261</v>
       </c>
       <c r="C94">
-        <v>0.07932015107519046</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03914979897717306</v>
+      </c>
+      <c r="D94">
+        <v>0.05846535250772433</v>
+      </c>
+      <c r="E94">
+        <v>0.02654880457526436</v>
+      </c>
+      <c r="F94">
+        <v>-0.04877147395946557</v>
+      </c>
+      <c r="G94">
+        <v>0.03487484221448871</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1134583368081946</v>
+        <v>0.1189050995130803</v>
       </c>
       <c r="C95">
-        <v>0.05626996206262466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02778114777850584</v>
+      </c>
+      <c r="D95">
+        <v>0.0580912519981234</v>
+      </c>
+      <c r="E95">
+        <v>0.01365192289206643</v>
+      </c>
+      <c r="F95">
+        <v>-0.0381463798554397</v>
+      </c>
+      <c r="G95">
+        <v>-0.01605479805010969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1877671972675832</v>
+        <v>0.2219478310221044</v>
       </c>
       <c r="C97">
-        <v>0.07822552537538528</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04367754396614209</v>
+      </c>
+      <c r="D97">
+        <v>-0.008034613091780305</v>
+      </c>
+      <c r="E97">
+        <v>0.2024532158311771</v>
+      </c>
+      <c r="F97">
+        <v>0.8776148697508757</v>
+      </c>
+      <c r="G97">
+        <v>-0.201343303833509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2344416189805487</v>
+        <v>0.2585251291716879</v>
       </c>
       <c r="C98">
-        <v>0.1226305999795771</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06397642926803543</v>
+      </c>
+      <c r="D98">
+        <v>0.03770359389806701</v>
+      </c>
+      <c r="E98">
+        <v>0.1496615660077125</v>
+      </c>
+      <c r="F98">
+        <v>-0.02621843149764841</v>
+      </c>
+      <c r="G98">
+        <v>0.2432895319545726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.572289325584586</v>
+        <v>0.3779841803367887</v>
       </c>
       <c r="C99">
-        <v>-0.8101064999751303</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9153195595788945</v>
+      </c>
+      <c r="D99">
+        <v>-0.06984112550653834</v>
+      </c>
+      <c r="E99">
+        <v>-0.04793070418948293</v>
+      </c>
+      <c r="F99">
+        <v>-0.03746662172011579</v>
+      </c>
+      <c r="G99">
+        <v>0.0002830391947987945</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03617396839859697</v>
+        <v>0.04218702959038113</v>
       </c>
       <c r="C101">
-        <v>0.03348281942042972</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02578010728943223</v>
+      </c>
+      <c r="D101">
+        <v>0.009852123972201938</v>
+      </c>
+      <c r="E101">
+        <v>-0.04025184361595937</v>
+      </c>
+      <c r="F101">
+        <v>-0.006995298380612613</v>
+      </c>
+      <c r="G101">
+        <v>0.01052313330694526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
